--- a/biology/Botanique/Britanski_trg/Britanski_trg.xlsx
+++ b/biology/Botanique/Britanski_trg/Britanski_trg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Britanski trg est une place publique de la ville de Zagreb en Croatie. Elle est située le long de la rue d'Ilica, quelques blocs à l'ouest de la place Ban-Jelačić. Le marché alimentaire ouvert avec des produits locaux est tenu du début de la matinée jusqu'à environ le midi chaque jour, et une foire d'antiquités se tient sur la place chaque dimanche.
  Portail de la Croatie   Portail des espaces verts                    </t>
